--- a/Aero design/Flight sim/hover stage sim - RK4 method/lookupTableVel.xlsx
+++ b/Aero design/Flight sim/hover stage sim - RK4 method/lookupTableVel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joseph\Documents\Crash-Sat\Crash-Sat\Aero design\Flight sim\hover stage sim\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joseph\Documents\Crash-Sat\Crash-Sat\Aero design\Flight sim\hover stage sim - RK4 method\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA96C001-73EE-4AC9-9143-282E9033AF53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF5A0D6-AD60-4751-AE6D-0879FE668273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -337,15 +337,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="B1">
+        <v>10</v>
+      </c>
+      <c r="C1">
+        <v>15</v>
+      </c>
+      <c r="D1">
+        <v>20</v>
+      </c>
+      <c r="E1">
+        <v>25</v>
+      </c>
+      <c r="F1">
+        <v>30</v>
+      </c>
+      <c r="G1">
+        <v>35</v>
+      </c>
+      <c r="H1">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
